--- a/data/output/BDA6_SCHULE_Gemeinden_LU.xlsx
+++ b/data/output/BDA6_SCHULE_Gemeinden_LU.xlsx
@@ -45,10 +45,10 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -66,14 +66,16 @@
     <col min="3" max="3" width="21.4609375" customWidth="true"/>
     <col min="4" max="4" width="24.0703125" customWidth="true"/>
     <col min="5" max="5" width="18.234375" customWidth="true"/>
-    <col min="6" max="6" width="14.625" customWidth="true"/>
-    <col min="7" max="7" width="19.44140625" customWidth="true"/>
-    <col min="8" max="8" width="19.984375" customWidth="true"/>
-    <col min="9" max="9" width="20.33984375" customWidth="true"/>
-    <col min="10" max="10" width="16.6875" customWidth="true"/>
-    <col min="11" max="11" width="22.34765625" customWidth="true"/>
-    <col min="12" max="12" width="18.01171875" customWidth="true"/>
-    <col min="13" max="13" width="15.41015625" customWidth="true"/>
+    <col min="6" max="6" width="11.765625" customWidth="true"/>
+    <col min="7" max="7" width="33.765625" customWidth="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true"/>
+    <col min="9" max="9" width="19.44140625" customWidth="true"/>
+    <col min="10" max="10" width="19.984375" customWidth="true"/>
+    <col min="11" max="11" width="20.33984375" customWidth="true"/>
+    <col min="12" max="12" width="16.6875" customWidth="true"/>
+    <col min="13" max="13" width="22.34765625" customWidth="true"/>
+    <col min="14" max="14" width="18.01171875" customWidth="true"/>
+    <col min="15" max="15" width="15.41015625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -104,40 +106,50 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>RegionCode</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RegionName</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>BRank_Gesamt</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>BRank_Arbeitsmarkt</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>BRank_Bevoelkerung</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>BRank_Erreichbarkeit</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>BRank_Sicherheit</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>BRank_Steuerbelastung</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>BRank_Versorgung</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>BRank_Wohnen</t>
         </is>
@@ -166,27 +178,35 @@
         <v>1051.0</v>
       </c>
       <c r="F2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>236.0</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>330.0</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>148.0</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>551.0</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>273.0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>462.0</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>669.0</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>136.0</v>
       </c>
     </row>
@@ -212,6 +232,14 @@
       <c r="E3" t="n">
         <v>1021.0</v>
       </c>
+      <c r="F3" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -235,6 +263,14 @@
       <c r="E4" t="n">
         <v>1121.0</v>
       </c>
+      <c r="F4" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -258,6 +294,14 @@
       <c r="E5" t="n">
         <v>1122.0</v>
       </c>
+      <c r="F5" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -281,6 +325,14 @@
       <c r="E6" t="n">
         <v>1123.0</v>
       </c>
+      <c r="F6" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -304,6 +356,14 @@
       <c r="E7" t="n">
         <v>1022.0</v>
       </c>
+      <c r="F7" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -328,27 +388,35 @@
         <v>1023.0</v>
       </c>
       <c r="F8" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>182.0</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>64.0</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>83.0</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>703.0</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>177.0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>211.0</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>648.0</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>512.0</v>
       </c>
     </row>
@@ -375,27 +443,35 @@
         <v>1081.0</v>
       </c>
       <c r="F9" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>600.0</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>611.0</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>233.0</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>854.0</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>73.0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>434.0</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>576.0</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>255.0</v>
       </c>
     </row>
@@ -422,27 +498,35 @@
         <v>1081.0</v>
       </c>
       <c r="F10" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>600.0</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>611.0</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>233.0</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>854.0</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>73.0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>434.0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>576.0</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>255.0</v>
       </c>
     </row>
@@ -469,27 +553,35 @@
         <v>1052.0</v>
       </c>
       <c r="F11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>282.0</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>212.0</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>580.0</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>634.0</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>273.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>434.0</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>883.0</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>774.0</v>
       </c>
     </row>
@@ -516,27 +608,35 @@
         <v>1083.0</v>
       </c>
       <c r="F12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>810.0</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>760.0</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>550.0</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>864.0</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>73.0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>543.0</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>787.0</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>536.0</v>
       </c>
     </row>
@@ -563,27 +663,35 @@
         <v>1082.0</v>
       </c>
       <c r="F13" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>878.0</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>837.0</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>639.0</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>832.0</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>73.0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>622.0</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>667.0</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>609.0</v>
       </c>
     </row>
@@ -610,27 +718,35 @@
         <v>1125.0</v>
       </c>
       <c r="F14" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>415.0</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>244.0</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>474.0</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>499.0</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>10.0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>397.0</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>908.0</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>400.0</v>
       </c>
     </row>
@@ -656,6 +772,14 @@
       <c r="E15" t="n">
         <v>1053.0</v>
       </c>
+      <c r="F15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -679,6 +803,14 @@
       <c r="E16" t="n">
         <v>1001.0</v>
       </c>
+      <c r="F16" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -702,6 +834,14 @@
       <c r="E17" t="n">
         <v>1126.0</v>
       </c>
+      <c r="F17" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,27 +866,35 @@
         <v>1054.0</v>
       </c>
       <c r="F18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>372.0</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>398.0</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>569.0</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>337.0</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>273.0</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>367.0</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>799.0</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>446.0</v>
       </c>
     </row>
@@ -772,6 +920,14 @@
       <c r="E19" t="n">
         <v>1127.0</v>
       </c>
+      <c r="F19" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -795,6 +951,14 @@
       <c r="E20" t="n">
         <v>1084.0</v>
       </c>
+      <c r="F20" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -819,27 +983,35 @@
         <v>1024.0</v>
       </c>
       <c r="F21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>351.0</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>316.0</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>853.0</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>564.0</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>177.0</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>459.0</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>514.0</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>612.0</v>
       </c>
     </row>
@@ -866,27 +1038,35 @@
         <v>1002.0</v>
       </c>
       <c r="F22" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>742.0</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>725.0</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>702.0</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>850.0</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>20.0</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>575.0</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>867.0</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>544.0</v>
       </c>
     </row>
@@ -912,6 +1092,14 @@
       <c r="E23" t="n">
         <v>1025.0</v>
       </c>
+      <c r="F23" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -936,27 +1124,35 @@
         <v>1026.0</v>
       </c>
       <c r="F24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>358.0</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>475.0</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>171.0</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>704.0</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>177.0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>189.0</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>907.0</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>77.0</v>
       </c>
     </row>
@@ -983,27 +1179,35 @@
         <v>1010.0</v>
       </c>
       <c r="F25" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>869.0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="I25" t="n">
         <v>854.0</v>
       </c>
-      <c r="H25" t="n">
+      <c r="J25" t="n">
         <v>832.0</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>857.0</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>20.0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>575.0</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>201.0</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>830.0</v>
       </c>
     </row>
@@ -1030,34 +1234,42 @@
         <v>1010.0</v>
       </c>
       <c r="F26" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>869.0</v>
       </c>
-      <c r="G26" t="n">
+      <c r="I26" t="n">
         <v>854.0</v>
       </c>
-      <c r="H26" t="n">
+      <c r="J26" t="n">
         <v>832.0</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>857.0</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>20.0</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>575.0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>201.0</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>830.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ettiswil</t>
+          <t>Escholzmatt-Marbach</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1067,44 +1279,52 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ettiswil</t>
+          <t>Marbach (LU) XXX</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n">
-        <v>1128.0</v>
+        <v>1010.0</v>
       </c>
       <c r="F27" t="n">
-        <v>782.0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>577.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H27" t="n">
-        <v>428.0</v>
+        <v>869.0</v>
       </c>
       <c r="I27" t="n">
-        <v>859.0</v>
+        <v>854.0</v>
       </c>
       <c r="J27" t="n">
-        <v>10.0</v>
+        <v>832.0</v>
       </c>
       <c r="K27" t="n">
-        <v>499.0</v>
+        <v>857.0</v>
       </c>
       <c r="L27" t="n">
-        <v>757.0</v>
+        <v>20.0</v>
       </c>
       <c r="M27" t="n">
-        <v>775.0</v>
+        <v>575.0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>201.0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>830.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fischbach</t>
+          <t>Ettiswil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1114,20 +1334,52 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fischbach</t>
+          <t>Ettiswil</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>1129.0</v>
+        <v>1128.0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>428.0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>859.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>757.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>775.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Flühli</t>
+          <t>Fischbach</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1137,20 +1389,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Flühli</t>
+          <t>Fischbach</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>1004.0</v>
+        <v>1129.0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Gettnau</t>
+          <t>Flühli</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1160,20 +1420,28 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Gettnau</t>
+          <t>Flühli</t>
         </is>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>1130.0</v>
+        <v>1004.0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Geuensee</t>
+          <t>Gettnau</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1183,44 +1451,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Geuensee</t>
+          <t>Gettnau</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1.0</v>
       </c>
       <c r="E31" t="n">
-        <v>1085.0</v>
+        <v>1130.0</v>
       </c>
       <c r="F31" t="n">
-        <v>534.0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>183.0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>812.0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>571.0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>826.0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>718.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Gisikon</t>
+          <t>Geuensee</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1230,20 +1482,52 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Gisikon</t>
+          <t>Geuensee</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
       <c r="E32" t="n">
-        <v>1055.0</v>
+        <v>1085.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>534.0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>826.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>718.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Greppen</t>
+          <t>Gisikon</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,20 +1537,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Greppen</t>
+          <t>Gisikon</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>1056.0</v>
+        <v>1055.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Grossdietwil</t>
+          <t>Greppen</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1276,20 +1568,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Grossdietwil</t>
+          <t>Greppen</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
       </c>
       <c r="E34" t="n">
-        <v>1131.0</v>
+        <v>1056.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Grosswangen</t>
+          <t>Grossdietwil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1299,44 +1599,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Grosswangen</t>
+          <t>Grossdietwil</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>1086.0</v>
+        <v>1131.0</v>
       </c>
       <c r="F35" t="n">
-        <v>583.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>512.0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>533.0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>872.0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>494.0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>877.0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>553.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Hasle (LU)</t>
+          <t>Grosswangen</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1346,20 +1630,52 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Hasle (LU)</t>
+          <t>Grosswangen</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
       </c>
       <c r="E36" t="n">
-        <v>1005.0</v>
+        <v>1086.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>512.0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>533.0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>872.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>494.0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>553.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Hergiswil bei Willisau</t>
+          <t>Hasle (LU)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1369,20 +1685,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Hergiswil bei Willisau</t>
+          <t>Hasle (LU)</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>1132.0</v>
+        <v>1005.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Hildisrieden</t>
+          <t>Hergiswil bei Willisau</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1392,44 +1716,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Hildisrieden</t>
+          <t>Hergiswil bei Willisau</t>
         </is>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>1088.0</v>
+        <v>1132.0</v>
       </c>
       <c r="F38" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>791.0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>701.0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>108.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hitzkirch</t>
+          <t>Hildisrieden</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1439,44 +1747,52 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Hitzkirch</t>
+          <t>Hildisrieden</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1030.0</v>
+        <v>1088.0</v>
       </c>
       <c r="F39" t="n">
-        <v>316.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>78.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H39" t="n">
-        <v>271.0</v>
+        <v>172.0</v>
       </c>
       <c r="I39" t="n">
-        <v>812.0</v>
+        <v>141.0</v>
       </c>
       <c r="J39" t="n">
-        <v>177.0</v>
+        <v>49.0</v>
       </c>
       <c r="K39" t="n">
-        <v>521.0</v>
+        <v>791.0</v>
       </c>
       <c r="L39" t="n">
-        <v>116.0</v>
+        <v>73.0</v>
       </c>
       <c r="M39" t="n">
-        <v>503.0</v>
+        <v>367.0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>701.0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>108.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Hochdorf</t>
+          <t>Hitzkirch</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1486,44 +1802,52 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Hochdorf</t>
+          <t>Hitzkirch</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1031.0</v>
+        <v>1030.0</v>
       </c>
       <c r="F40" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>181.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H40" t="n">
-        <v>445.0</v>
+        <v>316.0</v>
       </c>
       <c r="I40" t="n">
-        <v>795.0</v>
+        <v>78.0</v>
       </c>
       <c r="J40" t="n">
+        <v>271.0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>812.0</v>
+      </c>
+      <c r="L40" t="n">
         <v>177.0</v>
       </c>
-      <c r="K40" t="n">
-        <v>468.0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>284.0</v>
-      </c>
       <c r="M40" t="n">
-        <v>723.0</v>
+        <v>521.0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>116.0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>503.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Hohenrain</t>
+          <t>Hochdorf</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1533,44 +1857,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hohenrain</t>
+          <t>Hochdorf</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1032.0</v>
+        <v>1031.0</v>
       </c>
       <c r="F41" t="n">
-        <v>744.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>754.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
       <c r="H41" t="n">
-        <v>297.0</v>
+        <v>410.0</v>
       </c>
       <c r="I41" t="n">
-        <v>848.0</v>
+        <v>181.0</v>
       </c>
       <c r="J41" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>795.0</v>
+      </c>
+      <c r="L41" t="n">
         <v>177.0</v>
       </c>
-      <c r="K41" t="n">
-        <v>543.0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>838.0</v>
-      </c>
       <c r="M41" t="n">
-        <v>419.0</v>
+        <v>468.0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>723.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Honau</t>
+          <t>Hohenrain</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1580,20 +1912,52 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Honau</t>
+          <t>Hohenrain</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1057.0</v>
+        <v>1032.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>744.0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>754.0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>848.0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>838.0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>419.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Horw</t>
+          <t>Honau</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1603,44 +1967,28 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Horw</t>
+          <t>Honau</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1058.0</v>
+        <v>1057.0</v>
       </c>
       <c r="F43" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>450.0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>525.0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>196.0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>407.0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>32.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Inwil</t>
+          <t>Horw</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1650,44 +1998,52 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Inwil</t>
+          <t>Horw</t>
         </is>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1033.0</v>
+        <v>1058.0</v>
       </c>
       <c r="F44" t="n">
-        <v>559.0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>422.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
       </c>
       <c r="H44" t="n">
-        <v>285.0</v>
+        <v>35.0</v>
       </c>
       <c r="I44" t="n">
-        <v>726.0</v>
+        <v>29.0</v>
       </c>
       <c r="J44" t="n">
-        <v>177.0</v>
+        <v>450.0</v>
       </c>
       <c r="K44" t="n">
-        <v>359.0</v>
+        <v>525.0</v>
       </c>
       <c r="L44" t="n">
-        <v>663.0</v>
+        <v>273.0</v>
       </c>
       <c r="M44" t="n">
-        <v>789.0</v>
+        <v>196.0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>407.0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Knutwil</t>
+          <t>Inwil</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1697,44 +2053,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Knutwil</t>
+          <t>Inwil</t>
         </is>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1089.0</v>
+        <v>1033.0</v>
       </c>
       <c r="F45" t="n">
-        <v>377.0</v>
-      </c>
-      <c r="G45" t="n">
-        <v>441.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H45" t="n">
-        <v>103.0</v>
+        <v>559.0</v>
       </c>
       <c r="I45" t="n">
-        <v>827.0</v>
+        <v>422.0</v>
       </c>
       <c r="J45" t="n">
-        <v>73.0</v>
+        <v>285.0</v>
       </c>
       <c r="K45" t="n">
-        <v>524.0</v>
+        <v>726.0</v>
       </c>
       <c r="L45" t="n">
-        <v>542.0</v>
+        <v>177.0</v>
       </c>
       <c r="M45" t="n">
-        <v>429.0</v>
+        <v>359.0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>663.0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>789.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kriens</t>
+          <t>Knutwil</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1744,44 +2108,52 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kriens</t>
+          <t>Knutwil</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1059.0</v>
+        <v>1089.0</v>
       </c>
       <c r="F46" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>441.0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>827.0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>524.0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>542.0</v>
+      </c>
+      <c r="O46" t="n">
         <v>429.0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>419.0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>808.0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>459.0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>434.0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>571.0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>356.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Luthern</t>
+          <t>Kriens</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1791,20 +2163,52 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Luthern</t>
+          <t>Kriens</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1135.0</v>
+        <v>1059.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>429.0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>419.0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>808.0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>459.0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>356.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Luthern</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1814,44 +2218,28 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Luzern</t>
+          <t>Luthern</t>
         </is>
       </c>
       <c r="D48" t="n">
         <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>1061.0</v>
+        <v>1135.0</v>
       </c>
       <c r="F48" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="G48" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>705.0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>170.0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>874.0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>339.0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>29.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Malters</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1861,44 +2249,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Malters</t>
+          <t>Luzern</t>
         </is>
       </c>
       <c r="D49" t="n">
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>1062.0</v>
+        <v>1061.0</v>
       </c>
       <c r="F49" t="n">
-        <v>401.0</v>
-      </c>
-      <c r="G49" t="n">
-        <v>278.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Stadt Luzern</t>
+        </is>
       </c>
       <c r="H49" t="n">
-        <v>684.0</v>
+        <v>80.0</v>
       </c>
       <c r="I49" t="n">
-        <v>629.0</v>
+        <v>172.0</v>
       </c>
       <c r="J49" t="n">
-        <v>273.0</v>
+        <v>705.0</v>
       </c>
       <c r="K49" t="n">
-        <v>472.0</v>
+        <v>170.0</v>
       </c>
       <c r="L49" t="n">
-        <v>334.0</v>
+        <v>874.0</v>
       </c>
       <c r="M49" t="n">
-        <v>725.0</v>
+        <v>339.0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>29.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Mauensee</t>
+          <t>Malters</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1908,20 +2304,52 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mauensee</t>
+          <t>Malters</t>
         </is>
       </c>
       <c r="D50" t="n">
         <v>1.0</v>
       </c>
       <c r="E50" t="n">
-        <v>1091.0</v>
+        <v>1062.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>401.0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>278.0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>684.0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>629.0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>334.0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>725.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Meggen</t>
+          <t>Mauensee</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1931,44 +2359,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Meggen</t>
+          <t>Mauensee</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>1.0</v>
       </c>
       <c r="E51" t="n">
-        <v>1063.0</v>
+        <v>1091.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G51" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>473.0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K51" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="L51" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="M51" t="n">
-        <v>19.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Meierskappel</t>
+          <t>Meggen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1978,20 +2390,52 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Meierskappel</t>
+          <t>Meggen</t>
         </is>
       </c>
       <c r="D52" t="n">
         <v>1.0</v>
       </c>
       <c r="E52" t="n">
-        <v>1064.0</v>
+        <v>1063.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>273.0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Menznau</t>
+          <t>Meierskappel</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2001,44 +2445,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Menznau</t>
+          <t>Meierskappel</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>1136.0</v>
+        <v>1064.0</v>
       </c>
       <c r="F53" t="n">
-        <v>893.0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>832.0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>803.0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>876.0</v>
-      </c>
-      <c r="J53" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K53" t="n">
-        <v>698.0</v>
-      </c>
-      <c r="L53" t="n">
-        <v>763.0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>826.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nebikon</t>
+          <t>Menznau</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2048,44 +2476,52 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Nebikon</t>
+          <t>Menznau</t>
         </is>
       </c>
       <c r="D54" t="n">
         <v>1.0</v>
       </c>
       <c r="E54" t="n">
-        <v>1137.0</v>
+        <v>1136.0</v>
       </c>
       <c r="F54" t="n">
-        <v>741.0</v>
-      </c>
-      <c r="G54" t="n">
-        <v>685.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H54" t="n">
-        <v>281.0</v>
+        <v>893.0</v>
       </c>
       <c r="I54" t="n">
-        <v>617.0</v>
+        <v>832.0</v>
       </c>
       <c r="J54" t="n">
+        <v>803.0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>876.0</v>
+      </c>
+      <c r="L54" t="n">
         <v>10.0</v>
       </c>
-      <c r="K54" t="n">
-        <v>410.0</v>
-      </c>
-      <c r="L54" t="n">
-        <v>852.0</v>
-      </c>
       <c r="M54" t="n">
-        <v>706.0</v>
+        <v>698.0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>763.0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>826.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Neuenkirch</t>
+          <t>Nebikon</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2095,44 +2531,52 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Neuenkirch</t>
+          <t>Nebikon</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
       </c>
       <c r="E55" t="n">
-        <v>1093.0</v>
+        <v>1137.0</v>
       </c>
       <c r="F55" t="n">
-        <v>198.0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>29.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H55" t="n">
-        <v>199.0</v>
+        <v>741.0</v>
       </c>
       <c r="I55" t="n">
-        <v>695.0</v>
+        <v>685.0</v>
       </c>
       <c r="J55" t="n">
-        <v>73.0</v>
+        <v>281.0</v>
       </c>
       <c r="K55" t="n">
-        <v>472.0</v>
+        <v>617.0</v>
       </c>
       <c r="L55" t="n">
-        <v>344.0</v>
+        <v>10.0</v>
       </c>
       <c r="M55" t="n">
-        <v>308.0</v>
+        <v>410.0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>852.0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>706.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Nottwil</t>
+          <t>Neuenkirch</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2142,44 +2586,52 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Nottwil</t>
+          <t>Neuenkirch</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
       <c r="E56" t="n">
-        <v>1094.0</v>
+        <v>1093.0</v>
       </c>
       <c r="F56" t="n">
-        <v>267.0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>128.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H56" t="n">
-        <v>136.0</v>
+        <v>198.0</v>
       </c>
       <c r="I56" t="n">
-        <v>798.0</v>
+        <v>29.0</v>
       </c>
       <c r="J56" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>695.0</v>
+      </c>
+      <c r="L56" t="n">
         <v>73.0</v>
       </c>
-      <c r="K56" t="n">
-        <v>459.0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>69.0</v>
-      </c>
       <c r="M56" t="n">
-        <v>37.0</v>
+        <v>472.0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>344.0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>308.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Oberkirch</t>
+          <t>Nottwil</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2189,44 +2641,52 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Oberkirch</t>
+          <t>Nottwil</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>1095.0</v>
+        <v>1094.0</v>
       </c>
       <c r="F57" t="n">
-        <v>297.0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>106.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H57" t="n">
+        <v>267.0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>128.0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>798.0</v>
+      </c>
+      <c r="L57" t="n">
         <v>73.0</v>
       </c>
-      <c r="I57" t="n">
-        <v>811.0</v>
-      </c>
-      <c r="J57" t="n">
-        <v>73.0</v>
-      </c>
-      <c r="K57" t="n">
-        <v>223.0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>453.0</v>
-      </c>
       <c r="M57" t="n">
-        <v>68.0</v>
+        <v>459.0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>37.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pfaffnau</t>
+          <t>Oberkirch</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2236,44 +2696,52 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Pfaffnau</t>
+          <t>Oberkirch</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1.0</v>
       </c>
       <c r="E58" t="n">
-        <v>1139.0</v>
+        <v>1095.0</v>
       </c>
       <c r="F58" t="n">
-        <v>610.0</v>
-      </c>
-      <c r="G58" t="n">
-        <v>607.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
       </c>
       <c r="H58" t="n">
-        <v>426.0</v>
+        <v>297.0</v>
       </c>
       <c r="I58" t="n">
-        <v>745.0</v>
+        <v>106.0</v>
       </c>
       <c r="J58" t="n">
-        <v>10.0</v>
+        <v>73.0</v>
       </c>
       <c r="K58" t="n">
-        <v>484.0</v>
+        <v>811.0</v>
       </c>
       <c r="L58" t="n">
-        <v>409.0</v>
+        <v>73.0</v>
       </c>
       <c r="M58" t="n">
-        <v>288.0</v>
+        <v>223.0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>453.0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Pfaffnau</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2283,44 +2751,52 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rain</t>
+          <t>Pfaffnau</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1.0</v>
       </c>
       <c r="E59" t="n">
-        <v>1037.0</v>
+        <v>1139.0</v>
       </c>
       <c r="F59" t="n">
-        <v>194.0</v>
-      </c>
-      <c r="G59" t="n">
-        <v>20.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H59" t="n">
-        <v>37.0</v>
+        <v>610.0</v>
       </c>
       <c r="I59" t="n">
-        <v>776.0</v>
+        <v>607.0</v>
       </c>
       <c r="J59" t="n">
-        <v>177.0</v>
+        <v>426.0</v>
       </c>
       <c r="K59" t="n">
-        <v>417.0</v>
+        <v>745.0</v>
       </c>
       <c r="L59" t="n">
-        <v>782.0</v>
+        <v>10.0</v>
       </c>
       <c r="M59" t="n">
-        <v>711.0</v>
+        <v>484.0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>409.0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>288.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Reiden</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2330,44 +2806,52 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Reiden</t>
+          <t>Rain</t>
         </is>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
       </c>
       <c r="E60" t="n">
-        <v>1140.0</v>
+        <v>1037.0</v>
       </c>
       <c r="F60" t="n">
-        <v>712.0</v>
-      </c>
-      <c r="G60" t="n">
-        <v>780.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H60" t="n">
-        <v>752.0</v>
+        <v>194.0</v>
       </c>
       <c r="I60" t="n">
-        <v>323.0</v>
+        <v>20.0</v>
       </c>
       <c r="J60" t="n">
-        <v>10.0</v>
+        <v>37.0</v>
       </c>
       <c r="K60" t="n">
-        <v>575.0</v>
+        <v>776.0</v>
       </c>
       <c r="L60" t="n">
-        <v>377.0</v>
+        <v>177.0</v>
       </c>
       <c r="M60" t="n">
-        <v>506.0</v>
+        <v>417.0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>782.0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>711.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Reiden</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2377,44 +2861,52 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rickenbach (LU)</t>
+          <t>Reiden</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
       </c>
       <c r="E61" t="n">
-        <v>1097.0</v>
+        <v>1140.0</v>
       </c>
       <c r="F61" t="n">
-        <v>771.0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>721.0</v>
+        <v>7.0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
       </c>
       <c r="H61" t="n">
-        <v>287.0</v>
+        <v>712.0</v>
       </c>
       <c r="I61" t="n">
-        <v>861.0</v>
+        <v>780.0</v>
       </c>
       <c r="J61" t="n">
-        <v>73.0</v>
+        <v>752.0</v>
       </c>
       <c r="K61" t="n">
-        <v>543.0</v>
+        <v>323.0</v>
       </c>
       <c r="L61" t="n">
-        <v>769.0</v>
+        <v>10.0</v>
       </c>
       <c r="M61" t="n">
-        <v>627.0</v>
+        <v>575.0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>377.0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>506.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Roggliswil</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2424,20 +2916,52 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Roggliswil</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
       </c>
       <c r="E62" t="n">
-        <v>1142.0</v>
+        <v>1097.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>627.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Romoos</t>
+          <t>Rickenbach (LU)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2447,20 +2971,52 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Romoos</t>
+          <t>Pfeffikon XXX</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E63" t="n">
-        <v>1007.0</v>
+        <v>1097.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>771.0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>721.0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>287.0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>861.0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>543.0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>769.0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>627.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Roggliswil</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2470,44 +3026,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Root</t>
+          <t>Roggliswil</t>
         </is>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
       </c>
       <c r="E64" t="n">
-        <v>1065.0</v>
+        <v>1142.0</v>
       </c>
       <c r="F64" t="n">
-        <v>468.0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>504.0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>690.0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>462.0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>397.0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>472.0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>192.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Rothenburg</t>
+          <t>Romoos</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2517,44 +3057,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Rothenburg</t>
+          <t>Romoos</t>
         </is>
       </c>
       <c r="D65" t="n">
         <v>1.0</v>
       </c>
       <c r="E65" t="n">
-        <v>1040.0</v>
+        <v>1007.0</v>
       </c>
       <c r="F65" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>277.0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>513.0</v>
-      </c>
-      <c r="J65" t="n">
-        <v>177.0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>367.0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>511.0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>243.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ruswil</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2564,44 +3088,52 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Ruswil</t>
+          <t>Root</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
       </c>
       <c r="E66" t="n">
-        <v>1098.0</v>
+        <v>1065.0</v>
       </c>
       <c r="F66" t="n">
-        <v>400.0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>158.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H66" t="n">
-        <v>577.0</v>
+        <v>468.0</v>
       </c>
       <c r="I66" t="n">
-        <v>840.0</v>
+        <v>504.0</v>
       </c>
       <c r="J66" t="n">
-        <v>73.0</v>
+        <v>690.0</v>
       </c>
       <c r="K66" t="n">
-        <v>537.0</v>
+        <v>462.0</v>
       </c>
       <c r="L66" t="n">
-        <v>492.0</v>
+        <v>273.0</v>
       </c>
       <c r="M66" t="n">
-        <v>777.0</v>
+        <v>397.0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>192.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Römerswil</t>
+          <t>Rothenburg</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2611,20 +3143,52 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Römerswil</t>
+          <t>Rothenburg</t>
         </is>
       </c>
       <c r="D67" t="n">
         <v>1.0</v>
       </c>
       <c r="E67" t="n">
-        <v>1039.0</v>
+        <v>1040.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Agglomerationskern</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>277.0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>177.0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>367.0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>511.0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>243.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Schenkon</t>
+          <t>Ruswil</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2634,44 +3198,52 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Schenkon</t>
+          <t>Ruswil</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
       </c>
       <c r="E68" t="n">
-        <v>1099.0</v>
+        <v>1098.0</v>
       </c>
       <c r="F68" t="n">
-        <v>136.0</v>
-      </c>
-      <c r="G68" t="n">
-        <v>18.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
       </c>
       <c r="H68" t="n">
-        <v>102.0</v>
+        <v>400.0</v>
       </c>
       <c r="I68" t="n">
-        <v>830.0</v>
+        <v>158.0</v>
       </c>
       <c r="J68" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>840.0</v>
+      </c>
+      <c r="L68" t="n">
         <v>73.0</v>
       </c>
-      <c r="K68" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>610.0</v>
-      </c>
       <c r="M68" t="n">
-        <v>62.0</v>
+        <v>537.0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>492.0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>777.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Schlierbach</t>
+          <t>Römerswil</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2681,20 +3253,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Schlierbach</t>
+          <t>Römerswil</t>
         </is>
       </c>
       <c r="D69" t="n">
         <v>1.0</v>
       </c>
       <c r="E69" t="n">
-        <v>1100.0</v>
+        <v>1039.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Schongau</t>
+          <t>Schenkon</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2704,20 +3284,52 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Schongau</t>
+          <t>Schenkon</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
       <c r="E70" t="n">
-        <v>1041.0</v>
+        <v>1099.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>830.0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>86.0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>610.0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>62.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Schwarzenberg</t>
+          <t>Schlierbach</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2727,20 +3339,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Schwarzenberg</t>
+          <t>Schlierbach</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
       </c>
       <c r="E71" t="n">
-        <v>1066.0</v>
+        <v>1100.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Schongau</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2750,44 +3370,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Schötz</t>
+          <t>Schongau</t>
         </is>
       </c>
       <c r="D72" t="n">
         <v>1.0</v>
       </c>
       <c r="E72" t="n">
-        <v>1143.0</v>
+        <v>1041.0</v>
       </c>
       <c r="F72" t="n">
-        <v>772.0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>591.0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>333.0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>814.0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>579.0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>837.0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>657.0</v>
+        <v>11.0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Seetal</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Schüpfheim</t>
+          <t>Schwarzenberg</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2797,44 +3401,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Schüpfheim</t>
+          <t>Schwarzenberg</t>
         </is>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
       </c>
       <c r="E73" t="n">
-        <v>1008.0</v>
+        <v>1066.0</v>
       </c>
       <c r="F73" t="n">
-        <v>531.0</v>
-      </c>
-      <c r="G73" t="n">
-        <v>323.0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>689.0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>846.0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="K73" t="n">
-        <v>524.0</v>
-      </c>
-      <c r="L73" t="n">
-        <v>775.0</v>
-      </c>
-      <c r="M73" t="n">
-        <v>459.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sempach</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2844,44 +3432,52 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Sempach</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
       </c>
       <c r="E74" t="n">
-        <v>1102.0</v>
+        <v>1143.0</v>
       </c>
       <c r="F74" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="G74" t="n">
-        <v>163.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H74" t="n">
-        <v>104.0</v>
+        <v>772.0</v>
       </c>
       <c r="I74" t="n">
-        <v>736.0</v>
+        <v>591.0</v>
       </c>
       <c r="J74" t="n">
-        <v>73.0</v>
+        <v>333.0</v>
       </c>
       <c r="K74" t="n">
-        <v>468.0</v>
+        <v>814.0</v>
       </c>
       <c r="L74" t="n">
-        <v>285.0</v>
+        <v>10.0</v>
       </c>
       <c r="M74" t="n">
-        <v>112.0</v>
+        <v>579.0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>657.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sursee</t>
+          <t>Schötz</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2891,44 +3487,52 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Sursee</t>
+          <t>Ohmstal XXX</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E75" t="n">
-        <v>1103.0</v>
+        <v>1143.0</v>
       </c>
       <c r="F75" t="n">
-        <v>321.0</v>
-      </c>
-      <c r="G75" t="n">
-        <v>343.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
       <c r="H75" t="n">
-        <v>488.0</v>
+        <v>772.0</v>
       </c>
       <c r="I75" t="n">
-        <v>685.0</v>
+        <v>591.0</v>
       </c>
       <c r="J75" t="n">
-        <v>73.0</v>
+        <v>333.0</v>
       </c>
       <c r="K75" t="n">
-        <v>339.0</v>
+        <v>814.0</v>
       </c>
       <c r="L75" t="n">
-        <v>58.0</v>
+        <v>10.0</v>
       </c>
       <c r="M75" t="n">
-        <v>15.0</v>
+        <v>579.0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>657.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Triengen</t>
+          <t>Schüpfheim</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2938,44 +3542,52 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Triengen</t>
+          <t>Schüpfheim</t>
         </is>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
       </c>
       <c r="E76" t="n">
-        <v>1104.0</v>
+        <v>1008.0</v>
       </c>
       <c r="F76" t="n">
-        <v>777.0</v>
-      </c>
-      <c r="G76" t="n">
-        <v>733.0</v>
+        <v>9.0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Entlebuch</t>
+        </is>
       </c>
       <c r="H76" t="n">
-        <v>506.0</v>
+        <v>531.0</v>
       </c>
       <c r="I76" t="n">
-        <v>832.0</v>
+        <v>323.0</v>
       </c>
       <c r="J76" t="n">
-        <v>73.0</v>
+        <v>689.0</v>
       </c>
       <c r="K76" t="n">
-        <v>326.0</v>
+        <v>846.0</v>
       </c>
       <c r="L76" t="n">
-        <v>818.0</v>
+        <v>20.0</v>
       </c>
       <c r="M76" t="n">
-        <v>510.0</v>
+        <v>524.0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>775.0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>459.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Udligenswil</t>
+          <t>Sempach</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2985,44 +3597,52 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Udligenswil</t>
+          <t>Sempach</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
       </c>
       <c r="E77" t="n">
-        <v>1067.0</v>
+        <v>1102.0</v>
       </c>
       <c r="F77" t="n">
-        <v>220.0</v>
-      </c>
-      <c r="G77" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="J77" t="n">
         <v>104.0</v>
       </c>
-      <c r="H77" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>580.0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>273.0</v>
-      </c>
       <c r="K77" t="n">
-        <v>424.0</v>
+        <v>736.0</v>
       </c>
       <c r="L77" t="n">
-        <v>680.0</v>
+        <v>73.0</v>
       </c>
       <c r="M77" t="n">
-        <v>169.0</v>
+        <v>468.0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>285.0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>112.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Ufhusen</t>
+          <t>Sursee</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3032,20 +3652,52 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Ufhusen</t>
+          <t>Sursee</t>
         </is>
       </c>
       <c r="D78" t="n">
         <v>1.0</v>
       </c>
       <c r="E78" t="n">
-        <v>1145.0</v>
+        <v>1103.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Sursee/Sempachersee</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>321.0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>488.0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>685.0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>339.0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Vitznau</t>
+          <t>Triengen</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3055,20 +3707,52 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Vitznau</t>
+          <t>Triengen</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="E79" t="n">
-        <v>1068.0</v>
+        <v>1104.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Michelsamt/Surental</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>777.0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>733.0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>506.0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>832.0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>326.0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>510.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Wauwil</t>
+          <t>Udligenswil</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3078,44 +3762,52 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Wauwil</t>
+          <t>Udligenswil</t>
         </is>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
       </c>
       <c r="E80" t="n">
-        <v>1146.0</v>
+        <v>1067.0</v>
       </c>
       <c r="F80" t="n">
-        <v>561.0</v>
-      </c>
-      <c r="G80" t="n">
-        <v>493.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Agglomerationsgürtel (Luzerner Teil)</t>
+        </is>
       </c>
       <c r="H80" t="n">
-        <v>551.0</v>
+        <v>220.0</v>
       </c>
       <c r="I80" t="n">
-        <v>720.0</v>
+        <v>104.0</v>
       </c>
       <c r="J80" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="K80" t="n">
-        <v>505.0</v>
+        <v>580.0</v>
       </c>
       <c r="L80" t="n">
-        <v>834.0</v>
+        <v>273.0</v>
       </c>
       <c r="M80" t="n">
-        <v>606.0</v>
+        <v>424.0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>680.0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Weggis</t>
+          <t>Ufhusen</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3125,44 +3817,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Weggis</t>
+          <t>Ufhusen</t>
         </is>
       </c>
       <c r="D81" t="n">
         <v>1.0</v>
       </c>
       <c r="E81" t="n">
-        <v>1069.0</v>
+        <v>1145.0</v>
       </c>
       <c r="F81" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>416.0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>160.0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>817.0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>273.0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="L81" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>41.0</v>
+        <v>8.0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Werthenstein</t>
+          <t>Vitznau</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3172,44 +3848,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Werthenstein</t>
+          <t>Vitznau</t>
         </is>
       </c>
       <c r="D82" t="n">
         <v>1.0</v>
       </c>
       <c r="E82" t="n">
-        <v>1009.0</v>
+        <v>1068.0</v>
       </c>
       <c r="F82" t="n">
-        <v>678.0</v>
-      </c>
-      <c r="G82" t="n">
-        <v>541.0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>772.0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>837.0</v>
-      </c>
-      <c r="J82" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="K82" t="n">
-        <v>613.0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>585.0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>305.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Wikon</t>
+          <t>Wauwil</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3219,20 +3879,52 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Wikon</t>
+          <t>Wauwil</t>
         </is>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
       </c>
       <c r="E83" t="n">
-        <v>1147.0</v>
+        <v>1146.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>561.0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>493.0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>551.0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>720.0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>505.0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>834.0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>606.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Willisau</t>
+          <t>Weggis</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3242,44 +3934,52 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Willisau</t>
+          <t>Weggis</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
       </c>
       <c r="E84" t="n">
-        <v>1151.0</v>
+        <v>1069.0</v>
       </c>
       <c r="F84" t="n">
-        <v>705.0</v>
-      </c>
-      <c r="G84" t="n">
-        <v>623.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Rooterberg/Rigi</t>
+        </is>
       </c>
       <c r="H84" t="n">
-        <v>594.0</v>
+        <v>148.0</v>
       </c>
       <c r="I84" t="n">
-        <v>892.0</v>
+        <v>416.0</v>
       </c>
       <c r="J84" t="n">
-        <v>10.0</v>
+        <v>160.0</v>
       </c>
       <c r="K84" t="n">
-        <v>532.0</v>
+        <v>817.0</v>
       </c>
       <c r="L84" t="n">
-        <v>223.0</v>
+        <v>273.0</v>
       </c>
       <c r="M84" t="n">
-        <v>413.0</v>
+        <v>192.0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>41.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Wolhusen</t>
+          <t>Werthenstein</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3289,84 +3989,241 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Wolhusen</t>
+          <t>Werthenstein</t>
         </is>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
       </c>
       <c r="E85" t="n">
-        <v>1107.0</v>
+        <v>1009.0</v>
       </c>
       <c r="F85" t="n">
-        <v>726.0</v>
-      </c>
-      <c r="G85" t="n">
-        <v>627.0</v>
+        <v>10.0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
       </c>
       <c r="H85" t="n">
-        <v>822.0</v>
+        <v>678.0</v>
       </c>
       <c r="I85" t="n">
-        <v>818.0</v>
+        <v>541.0</v>
       </c>
       <c r="J85" t="n">
+        <v>772.0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="L85" t="n">
         <v>20.0</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>613.0</v>
       </c>
-      <c r="L85" t="n">
-        <v>768.0</v>
-      </c>
-      <c r="M85" t="n">
-        <v>188.0</v>
+      <c r="N85" t="n">
+        <v>585.0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>305.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
+          <t>Wikon</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wikon</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1147.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Unteres Wiggertal</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1151.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>705.0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>623.0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>594.0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>892.0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>532.0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>223.0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>413.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Wolhusen</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wolhusen</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1107.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rottal-Wolhusen</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>726.0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>627.0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>822.0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>818.0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>768.0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>188.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>Zell (LU)</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LU</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
         <is>
           <t>Zell (LU)</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="D89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E89" t="n">
         <v>1150.0</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F89" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Willisau</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
         <v>761.0</v>
       </c>
-      <c r="G86" t="n">
+      <c r="I89" t="n">
         <v>739.0</v>
       </c>
-      <c r="H86" t="n">
+      <c r="J89" t="n">
         <v>664.0</v>
       </c>
-      <c r="I86" t="n">
+      <c r="K89" t="n">
         <v>843.0</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L89" t="n">
         <v>10.0</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M89" t="n">
         <v>505.0</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N89" t="n">
         <v>512.0</v>
       </c>
-      <c r="M86" t="n">
+      <c r="O89" t="n">
         <v>607.0</v>
       </c>
     </row>
